--- a/Data/description/summary_rhesus_2021.xlsx
+++ b/Data/description/summary_rhesus_2021.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1093208803973952</v>
+        <v>0.1197886450090824</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1064161977081257</v>
+        <v>0.1179634726754814</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.0392109621040578</v>
+        <v>0.04010899970428008</v>
       </c>
     </row>
     <row r="6">
@@ -563,19 +563,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.37655987440828</v>
+        <v>1.108102521956992</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8334183139927799</v>
+        <v>0.9791514537635911</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1452308245712713</v>
+        <v>-0.1023352593958481</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4655647297432592</v>
+        <v>0.4602909493328309</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6945779436530132</v>
+        <v>0.6759212109862255</v>
       </c>
     </row>
     <row r="7">
@@ -585,19 +585,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.471507222486839e-06</v>
+        <v>3.798322006798963e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>1.358048171102801e-05</v>
+        <v>1.492390594373961e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>2.172802337876447e-05</v>
+        <v>2.216670596320746e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>1.473671937204565e-06</v>
+        <v>1.491171005941394e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0620665476624998</v>
+        <v>0.06293007720258682</v>
       </c>
     </row>
     <row r="8">
@@ -607,19 +607,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4695879277420667</v>
+        <v>0.4732657742309253</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4170807815812898</v>
+        <v>0.4065003951406975</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7055026902138636</v>
+        <v>0.7054493880550912</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3696878115877672</v>
+        <v>0.3662425427024913</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3540451187059111</v>
+        <v>0.3517665981449005</v>
       </c>
     </row>
     <row r="9">
@@ -629,19 +629,41 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06880880142609951</v>
+        <v>0.05244059344893645</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08099883621136247</v>
+        <v>0.08880217926052486</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.04495772858205404</v>
+        <v>-0.03034066150028601</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1604246963857168</v>
+        <v>-0.1584544732571385</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004479631168497793</v>
+        <v>0.0006271736563742272</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>number of subgroups</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
